--- a/DATABASE DIAGRAM/Book1.xlsx
+++ b/DATABASE DIAGRAM/Book1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Ulvy\PROJECTS\PHP-DB-G3\DATABASE DIAGRAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophiem.loem\Desktop\PHP-DB-G3\DATABASE DIAGRAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F49236-CB0E-4C26-884A-7E8484F088B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E83DB3-6966-4DC6-BBF5-3ADD211E83F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{4C4721BF-7EA5-42EC-977A-BFC4C1ADE578}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4C4721BF-7EA5-42EC-977A-BFC4C1ADE578}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
   <si>
     <t>USERS</t>
   </si>
@@ -237,15 +237,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -257,6 +248,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2399,34 +2399,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E70E0-CDDA-4063-A0DF-04D9EE48DF4F}">
-  <dimension ref="B3:P20"/>
+  <dimension ref="B3:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="15" max="15" width="17.26953125" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2436,11 +2436,11 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -2448,13 +2448,13 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -2462,11 +2462,11 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -2474,11 +2474,11 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -2486,32 +2486,32 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>33</v>
@@ -2520,25 +2520,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="D13" s="8"/>
-      <c r="N13" s="2" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="N13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="H14" s="2" t="s">
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
       <c r="N14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2549,12 +2549,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="H15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2574,14 +2574,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
         <v>21</v>
@@ -2590,60 +2596,46 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C17" s="5"/>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="O17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2662,38 +2654,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3313CCA-97EF-4363-8483-1EB416F9879C}">
   <dimension ref="B3:S25"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:O18"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="13" max="13" width="11.26953125" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" customWidth="1"/>
-    <col min="15" max="15" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2703,9 +2695,9 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="M4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2722,7 +2714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -2730,15 +2722,15 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="M5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>5</v>
@@ -2750,8 +2742,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="9">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
@@ -2761,16 +2753,16 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="M6" s="1" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="M6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R6">
@@ -2780,7 +2772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -2788,18 +2780,9 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="M7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="R7">
         <v>1</v>
       </c>
@@ -2807,7 +2790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -2815,9 +2798,9 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="R8">
         <v>2</v>
       </c>
@@ -2825,28 +2808,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>33</v>
@@ -2855,33 +2838,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C14" s="2" t="s">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="H14" s="2" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="H14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="M14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2912,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -2939,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -2964,7 +2947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>21</v>
@@ -2979,17 +2962,17 @@
       <c r="J18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>25</v>
@@ -3005,19 +2988,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C23" s="2" t="s">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -3026,7 +3009,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>

--- a/DATABASE DIAGRAM/Book1.xlsx
+++ b/DATABASE DIAGRAM/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophiem.loem\Desktop\PHP-DB-G3\DATABASE DIAGRAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E83DB3-6966-4DC6-BBF5-3ADD211E83F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F85707-44C9-4E92-B785-845EFC4B4437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4C4721BF-7EA5-42EC-977A-BFC4C1ADE578}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>USERS</t>
   </si>
@@ -55,9 +55,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>accountId</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -70,18 +67,9 @@
     <t>likes</t>
   </si>
   <si>
-    <t>likeId</t>
-  </si>
-  <si>
     <t>accountid</t>
   </si>
   <si>
-    <t>SHARES</t>
-  </si>
-  <si>
-    <t>shareId</t>
-  </si>
-  <si>
     <t>POSTS</t>
   </si>
   <si>
@@ -94,36 +82,18 @@
     <t>description</t>
   </si>
   <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
     <t>COMMENTS</t>
   </si>
   <si>
     <t>commentid</t>
   </si>
   <si>
-    <t>dateShare</t>
-  </si>
-  <si>
     <t>datePost</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>postid</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>FREINDSHIPS</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -131,9 +101,6 @@
   </si>
   <si>
     <t>varchar(300)</t>
-  </si>
-  <si>
-    <t>userid1</t>
   </si>
 </sst>
 </file>
@@ -234,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -258,9 +225,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,80 +890,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>451555</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>416277</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Curved Right 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDAD753-28C6-47AA-92AC-BAC5C265C781}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="451555" y="963083"/>
-          <a:ext cx="574322" cy="1883833"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>124884</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>119945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>91722</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>421923</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>140053</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -999,12 +912,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3992034" y="1777295"/>
-          <a:ext cx="576438" cy="1006121"/>
+          <a:off x="3902777" y="1853709"/>
+          <a:ext cx="1699034" cy="983310"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1029,90 +943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>148166</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>515055</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>35278</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108DF022-C9A2-4329-A292-63C26443B598}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4624916" y="2683934"/>
-          <a:ext cx="366889" cy="297744"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>105833</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>91722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>613833</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>888287</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>35278</xdr:rowOff>
+      <xdr:rowOff>32107</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1127,8 +967,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3020483" y="91722"/>
-          <a:ext cx="6648450" cy="127706"/>
+          <a:off x="2974035" y="91722"/>
+          <a:ext cx="4720881" cy="133025"/>
         </a:xfrm>
         <a:prstGeom prst="curvedDownArrow">
           <a:avLst/>
@@ -1246,16 +1086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>711201</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>861032</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>62088</xdr:rowOff>
+      <xdr:rowOff>94194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>170746</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>182033</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74426</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1270,8 +1110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9766301" y="62088"/>
-          <a:ext cx="246945" cy="304095"/>
+          <a:off x="7667661" y="94194"/>
+          <a:ext cx="208703" cy="312585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1407,13 +1247,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>352778</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14111</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1427,9 +1267,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4219928" y="1699683"/>
-          <a:ext cx="5622572" cy="524228"/>
+        <a:xfrm flipV="1">
+          <a:off x="4130671" y="1733764"/>
+          <a:ext cx="4891323" cy="42333"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1457,16 +1297,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28222</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>183444</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370695</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>55017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>277989</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>119944</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>620462</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>184158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1481,8 +1321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9870722" y="2024944"/>
-          <a:ext cx="249767" cy="304800"/>
+          <a:off x="9392689" y="825579"/>
+          <a:ext cx="249767" cy="321781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1536,367 +1376,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168326</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295326</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>154214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Arrow: Curved Right 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4AE3A2-4438-4245-AE1A-7585F48214AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="168326" y="1473200"/>
-          <a:ext cx="736600" cy="3100614"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>331608</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>119945</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749B191C-306D-410E-8F82-5763616AC3A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="941208" y="1473200"/>
-          <a:ext cx="249767" cy="304095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>331605</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581372</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119944</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F145F50-867A-4653-94D0-E69B038C3D4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="941205" y="4235450"/>
-          <a:ext cx="249767" cy="304094"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>301443</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11304</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>252055</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12009</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD5787D-BA22-4A3F-9DD0-6159D84C2ABB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8137343" y="2957704"/>
-          <a:ext cx="560212" cy="705"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>49388</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>299155</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>91723</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0F8ACF-6DFD-4D7C-B439-B13607F21AA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7885288" y="2732440"/>
-          <a:ext cx="249767" cy="305683"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>297039</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>140053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>546806</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>77436</xdr:rowOff>
@@ -1969,16 +1455,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>293687</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>150812</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>705889</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>128427</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>21404</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1989,12 +1475,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8129587" y="1439862"/>
-          <a:ext cx="1831976" cy="1193801"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7512518" y="1160535"/>
+          <a:ext cx="417847" cy="1365195"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2022,16 +1510,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>160868</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>30337</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>460532</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>406225</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>150283</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>705889</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2046,8 +1534,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10003368" y="1319387"/>
-          <a:ext cx="245357" cy="304096"/>
+          <a:off x="7267161" y="1004241"/>
+          <a:ext cx="245357" cy="312587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2417,14 +1905,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -2469,7 +1957,7 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -2493,7 +1981,7 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -2505,7 +1993,7 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
@@ -2514,7 +2002,7 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -2527,23 +2015,23 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>
-      <c r="N13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="10"/>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="H14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
       <c r="N14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>5</v>
@@ -2559,13 +2047,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>2</v>
@@ -2580,39 +2068,39 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>5</v>
@@ -2625,7 +2113,7 @@
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>8</v>
@@ -2652,40 +2140,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3313CCA-97EF-4363-8483-1EB416F9879C}">
-  <dimension ref="B3:S25"/>
+  <dimension ref="B3:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="M3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2696,25 +2185,17 @@
         <v>5</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="M4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -2724,28 +2205,18 @@
       </c>
       <c r="F5" s="4"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="M5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -2754,43 +2225,23 @@
         <v>6</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="M6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -2801,17 +2252,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -2819,212 +2273,119 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="H14" s="8" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="M14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C23:E23"/>
+  <mergeCells count="3">
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="I14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
